--- a/src/test/resources/VtigerCRMTestData.xlsx
+++ b/src/test/resources/VtigerCRMTestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="32">
   <si>
     <t>TestCase Name</t>
   </si>
